--- a/MEDIA/3013_拉亞直營營業額(2020-08-01~2020-08-31).xlsx
+++ b/MEDIA/3013_拉亞直營營業額(2020-08-01~2020-08-31).xlsx
@@ -510,38 +510,38 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>30942</v>
+        <v>34492</v>
       </c>
       <c r="E3" t="n">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="F3" t="n">
-        <v>7655</v>
+        <v>15100</v>
       </c>
       <c r="G3" t="n">
-        <v>24.7</v>
+        <v>43.8</v>
       </c>
       <c r="H3" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I3" t="n">
-        <v>6575</v>
+        <v>10393</v>
       </c>
       <c r="J3" t="n">
-        <v>21.2</v>
+        <v>30.1</v>
       </c>
       <c r="K3" t="n">
         <v>33</v>
       </c>
       <c r="L3" t="n">
-        <v>4740</v>
+        <v>2624</v>
       </c>
       <c r="M3" t="n">
-        <v>15.3</v>
+        <v>7.6</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -553,37 +553,37 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>1850</v>
+        <v>975</v>
       </c>
       <c r="S3" t="n">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="T3" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="U3" t="n">
-        <v>4275</v>
+        <v>5400</v>
       </c>
       <c r="V3" t="n">
-        <v>13.8</v>
+        <v>15.7</v>
       </c>
       <c r="W3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>5847</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.9</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="AA3" t="n">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4">
@@ -599,38 +599,38 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>34270</v>
+        <v>32831</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="F4" t="n">
-        <v>5400</v>
+        <v>12240</v>
       </c>
       <c r="G4" t="n">
-        <v>15.8</v>
+        <v>37.3</v>
       </c>
       <c r="H4" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="I4" t="n">
-        <v>7870</v>
+        <v>12960</v>
       </c>
       <c r="J4" t="n">
-        <v>23</v>
+        <v>39.5</v>
       </c>
       <c r="K4" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="L4" t="n">
-        <v>7015</v>
+        <v>3341</v>
       </c>
       <c r="M4" t="n">
-        <v>20.5</v>
+        <v>10.2</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -642,37 +642,37 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1670</v>
+        <v>530</v>
       </c>
       <c r="S4" t="n">
-        <v>4.9</v>
+        <v>1.6</v>
       </c>
       <c r="T4" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="U4" t="n">
-        <v>5395</v>
+        <v>3760</v>
       </c>
       <c r="V4" t="n">
-        <v>15.7</v>
+        <v>11.5</v>
       </c>
       <c r="W4" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>6920</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.2</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="AA4" t="n">
-        <v>191</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5">
@@ -688,38 +688,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>20680</v>
+        <v>29595</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="F5" t="n">
-        <v>2995</v>
+        <v>8110</v>
       </c>
       <c r="G5" t="n">
-        <v>14.5</v>
+        <v>27.4</v>
       </c>
       <c r="H5" t="n">
+        <v>75</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12745</v>
+      </c>
+      <c r="J5" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K5" t="n">
         <v>49</v>
       </c>
-      <c r="I5" t="n">
-        <v>5510</v>
-      </c>
-      <c r="J5" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>33</v>
-      </c>
       <c r="L5" t="n">
-        <v>3785</v>
+        <v>2820</v>
       </c>
       <c r="M5" t="n">
-        <v>18.3</v>
+        <v>9.5</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -731,37 +731,37 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R5" t="n">
-        <v>1840</v>
+        <v>2090</v>
       </c>
       <c r="S5" t="n">
-        <v>8.9</v>
+        <v>7.1</v>
       </c>
       <c r="T5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="U5" t="n">
-        <v>4495</v>
+        <v>3830</v>
       </c>
       <c r="V5" t="n">
-        <v>21.7</v>
+        <v>12.9</v>
       </c>
       <c r="W5" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>2055</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c r="AA5" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6">
@@ -777,80 +777,80 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18046</v>
+        <v>29426</v>
       </c>
       <c r="E6" t="n">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="F6" t="n">
-        <v>1786</v>
+        <v>11563</v>
       </c>
       <c r="G6" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>99</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9657</v>
+      </c>
+      <c r="J6" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>43</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2901</v>
+      </c>
+      <c r="M6" t="n">
         <v>9.9</v>
       </c>
-      <c r="H6" t="n">
-        <v>42</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5355</v>
-      </c>
-      <c r="J6" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K6" t="n">
-        <v>33</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3465</v>
-      </c>
-      <c r="M6" t="n">
-        <v>19.2</v>
-      </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>12</v>
       </c>
       <c r="R6" t="n">
-        <v>2340</v>
+        <v>2760</v>
       </c>
       <c r="S6" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="T6" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="U6" t="n">
-        <v>1095</v>
+        <v>2545</v>
       </c>
       <c r="V6" t="n">
-        <v>6.1</v>
+        <v>8.6</v>
       </c>
       <c r="W6" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>3935</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.8</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>131</v>
+        <v>258</v>
       </c>
       <c r="AA6" t="n">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7">
@@ -866,38 +866,38 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15200</v>
+        <v>28536</v>
       </c>
       <c r="E7" t="n">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="F7" t="n">
-        <v>2235</v>
+        <v>10040</v>
       </c>
       <c r="G7" t="n">
-        <v>14.7</v>
+        <v>35.2</v>
       </c>
       <c r="H7" t="n">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="I7" t="n">
-        <v>4190</v>
+        <v>11491</v>
       </c>
       <c r="J7" t="n">
-        <v>27.6</v>
+        <v>40.3</v>
       </c>
       <c r="K7" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="L7" t="n">
-        <v>4350</v>
+        <v>3015</v>
       </c>
       <c r="M7" t="n">
-        <v>28.6</v>
+        <v>10.6</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -909,37 +909,37 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>2270</v>
+        <v>910</v>
       </c>
       <c r="S7" t="n">
-        <v>14.9</v>
+        <v>3.2</v>
       </c>
       <c r="T7" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="U7" t="n">
-        <v>1250</v>
+        <v>3080</v>
       </c>
       <c r="V7" t="n">
-        <v>8.199999999999999</v>
+        <v>10.8</v>
       </c>
       <c r="W7" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>905</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>139</v>
+        <v>257</v>
       </c>
       <c r="AA7" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8">
@@ -955,38 +955,38 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>16580</v>
+        <v>28559</v>
       </c>
       <c r="E8" t="n">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="F8" t="n">
-        <v>2135</v>
+        <v>10690</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9</v>
+        <v>37.4</v>
       </c>
       <c r="H8" t="n">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="I8" t="n">
-        <v>5025</v>
+        <v>11040</v>
       </c>
       <c r="J8" t="n">
-        <v>30.3</v>
+        <v>38.7</v>
       </c>
       <c r="K8" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="L8" t="n">
-        <v>4765</v>
+        <v>3274</v>
       </c>
       <c r="M8" t="n">
-        <v>28.7</v>
+        <v>11.5</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -998,37 +998,37 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R8" t="n">
-        <v>670</v>
+        <v>1105</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U8" t="n">
-        <v>1700</v>
+        <v>2450</v>
       </c>
       <c r="V8" t="n">
-        <v>10.3</v>
+        <v>8.6</v>
       </c>
       <c r="W8" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>2285</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>136</v>
+        <v>261</v>
       </c>
       <c r="AA8" t="n">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
@@ -1044,38 +1044,38 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>18835</v>
+        <v>27115</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F9" t="n">
-        <v>2850</v>
+        <v>10639</v>
       </c>
       <c r="G9" t="n">
-        <v>15.1</v>
+        <v>39.2</v>
       </c>
       <c r="H9" t="n">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="I9" t="n">
-        <v>3885</v>
+        <v>10356</v>
       </c>
       <c r="J9" t="n">
-        <v>20.6</v>
+        <v>38.2</v>
       </c>
       <c r="K9" t="n">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="L9" t="n">
-        <v>4040</v>
+        <v>4175</v>
       </c>
       <c r="M9" t="n">
-        <v>21.4</v>
+        <v>15.4</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1087,37 +1087,37 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1070</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="U9" t="n">
-        <v>2405</v>
+        <v>1945</v>
       </c>
       <c r="V9" t="n">
-        <v>12.8</v>
+        <v>7.2</v>
       </c>
       <c r="W9" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>4585</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>24.3</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>139</v>
+        <v>265</v>
       </c>
       <c r="AA9" t="n">
-        <v>136</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -1133,80 +1133,80 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>28395</v>
+        <v>32186</v>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="F10" t="n">
-        <v>4590</v>
+        <v>10908</v>
       </c>
       <c r="G10" t="n">
-        <v>16.2</v>
+        <v>33.9</v>
       </c>
       <c r="H10" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I10" t="n">
-        <v>8410</v>
+        <v>8754</v>
       </c>
       <c r="J10" t="n">
-        <v>29.6</v>
+        <v>27.2</v>
       </c>
       <c r="K10" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L10" t="n">
-        <v>6750</v>
+        <v>7179</v>
       </c>
       <c r="M10" t="n">
-        <v>23.8</v>
+        <v>22.3</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>2940</v>
+        <v>810</v>
       </c>
       <c r="S10" t="n">
-        <v>10.4</v>
+        <v>2.5</v>
       </c>
       <c r="T10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U10" t="n">
-        <v>4540</v>
+        <v>4535</v>
       </c>
       <c r="V10" t="n">
-        <v>16</v>
+        <v>14.1</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1105</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="AA10" t="n">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
@@ -1222,38 +1222,38 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>32060</v>
+        <v>30121</v>
       </c>
       <c r="E11" t="n">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="F11" t="n">
-        <v>5950</v>
+        <v>12940</v>
       </c>
       <c r="G11" t="n">
-        <v>18.6</v>
+        <v>43</v>
       </c>
       <c r="H11" t="n">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="I11" t="n">
-        <v>7870</v>
+        <v>11360</v>
       </c>
       <c r="J11" t="n">
-        <v>24.5</v>
+        <v>37.7</v>
       </c>
       <c r="K11" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="L11" t="n">
-        <v>7230</v>
+        <v>1666</v>
       </c>
       <c r="M11" t="n">
-        <v>22.6</v>
+        <v>5.5</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1265,37 +1265,37 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>555</v>
+        <v>120</v>
       </c>
       <c r="S11" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="T11" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U11" t="n">
-        <v>5195</v>
+        <v>4035</v>
       </c>
       <c r="V11" t="n">
-        <v>16.2</v>
+        <v>13.4</v>
       </c>
       <c r="W11" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>5260</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.4</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="AA11" t="n">
-        <v>170</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
@@ -1311,38 +1311,38 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>22786</v>
+        <v>32628</v>
       </c>
       <c r="E12" t="n">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="F12" t="n">
-        <v>2620</v>
+        <v>11580</v>
       </c>
       <c r="G12" t="n">
-        <v>11.5</v>
+        <v>35.5</v>
       </c>
       <c r="H12" t="n">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="I12" t="n">
-        <v>4115</v>
+        <v>14650</v>
       </c>
       <c r="J12" t="n">
-        <v>18.1</v>
+        <v>44.9</v>
       </c>
       <c r="K12" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="L12" t="n">
-        <v>4150</v>
+        <v>3703</v>
       </c>
       <c r="M12" t="n">
-        <v>18.2</v>
+        <v>11.3</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1354,37 +1354,37 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>2080</v>
+        <v>210</v>
       </c>
       <c r="S12" t="n">
-        <v>9.1</v>
+        <v>0.6</v>
       </c>
       <c r="T12" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="U12" t="n">
-        <v>3885</v>
+        <v>2485</v>
       </c>
       <c r="V12" t="n">
-        <v>17</v>
+        <v>7.6</v>
       </c>
       <c r="W12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>5936</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>26.1</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>145</v>
+        <v>271</v>
       </c>
       <c r="AA12" t="n">
-        <v>157</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
@@ -1400,80 +1400,80 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>18350</v>
+        <v>24462</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="F13" t="n">
-        <v>2650</v>
+        <v>10444</v>
       </c>
       <c r="G13" t="n">
-        <v>14.4</v>
+        <v>42.7</v>
       </c>
       <c r="H13" t="n">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="I13" t="n">
-        <v>3980</v>
+        <v>9350</v>
       </c>
       <c r="J13" t="n">
-        <v>21.7</v>
+        <v>38.2</v>
       </c>
       <c r="K13" t="n">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="L13" t="n">
-        <v>3370</v>
+        <v>3103</v>
       </c>
       <c r="M13" t="n">
-        <v>18.4</v>
+        <v>12.7</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>10</v>
       </c>
       <c r="U13" t="n">
-        <v>1625</v>
+        <v>1565</v>
       </c>
       <c r="V13" t="n">
-        <v>8.9</v>
+        <v>6.4</v>
       </c>
       <c r="W13" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>6560</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>35.7</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>117</v>
+        <v>238</v>
       </c>
       <c r="AA13" t="n">
-        <v>157</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14">
@@ -1489,38 +1489,38 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>17080</v>
+        <v>25559</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="F14" t="n">
-        <v>2750</v>
+        <v>10933</v>
       </c>
       <c r="G14" t="n">
-        <v>16.1</v>
+        <v>42.8</v>
       </c>
       <c r="H14" t="n">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="I14" t="n">
-        <v>5015</v>
+        <v>8681</v>
       </c>
       <c r="J14" t="n">
-        <v>29.4</v>
+        <v>34</v>
       </c>
       <c r="K14" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="L14" t="n">
-        <v>3440</v>
+        <v>2775</v>
       </c>
       <c r="M14" t="n">
-        <v>20.1</v>
+        <v>10.9</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1532,37 +1532,37 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>1155</v>
+        <v>410</v>
       </c>
       <c r="S14" t="n">
-        <v>6.8</v>
+        <v>1.6</v>
       </c>
       <c r="T14" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="U14" t="n">
-        <v>1635</v>
+        <v>2760</v>
       </c>
       <c r="V14" t="n">
-        <v>9.6</v>
+        <v>10.8</v>
       </c>
       <c r="W14" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>3085</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>18.1</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>141</v>
+        <v>251</v>
       </c>
       <c r="AA14" t="n">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15">
@@ -1578,38 +1578,38 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>19120</v>
+        <v>27402</v>
       </c>
       <c r="E15" t="n">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="F15" t="n">
-        <v>2535</v>
+        <v>12160</v>
       </c>
       <c r="G15" t="n">
-        <v>13.3</v>
+        <v>44.4</v>
       </c>
       <c r="H15" t="n">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="I15" t="n">
-        <v>5210</v>
+        <v>9152</v>
       </c>
       <c r="J15" t="n">
-        <v>27.2</v>
+        <v>33.4</v>
       </c>
       <c r="K15" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="L15" t="n">
-        <v>4400</v>
+        <v>3205</v>
       </c>
       <c r="M15" t="n">
-        <v>23</v>
+        <v>11.7</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1621,37 +1621,37 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1070</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="U15" t="n">
-        <v>2230</v>
+        <v>2885</v>
       </c>
       <c r="V15" t="n">
-        <v>11.7</v>
+        <v>10.5</v>
       </c>
       <c r="W15" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>3675</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.2</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>144</v>
+        <v>259</v>
       </c>
       <c r="AA15" t="n">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16">
@@ -1667,38 +1667,38 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>17360</v>
+        <v>27280</v>
       </c>
       <c r="E16" t="n">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="F16" t="n">
-        <v>1295</v>
+        <v>12715</v>
       </c>
       <c r="G16" t="n">
-        <v>7.5</v>
+        <v>46.6</v>
       </c>
       <c r="H16" t="n">
+        <v>96</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9005</v>
+      </c>
+      <c r="J16" t="n">
+        <v>33</v>
+      </c>
+      <c r="K16" t="n">
         <v>45</v>
       </c>
-      <c r="I16" t="n">
-        <v>5215</v>
-      </c>
-      <c r="J16" t="n">
-        <v>30</v>
-      </c>
-      <c r="K16" t="n">
-        <v>42</v>
-      </c>
       <c r="L16" t="n">
-        <v>4770</v>
+        <v>2520</v>
       </c>
       <c r="M16" t="n">
-        <v>27.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1710,37 +1710,37 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1180</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="U16" t="n">
-        <v>2140</v>
+        <v>3040</v>
       </c>
       <c r="V16" t="n">
-        <v>12.3</v>
+        <v>11.1</v>
       </c>
       <c r="W16" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>2760</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.9</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>133</v>
+        <v>251</v>
       </c>
       <c r="AA16" t="n">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17">
@@ -1756,80 +1756,80 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>28135</v>
+        <v>37175</v>
       </c>
       <c r="E17" t="n">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="F17" t="n">
-        <v>6730</v>
+        <v>13840</v>
       </c>
       <c r="G17" t="n">
-        <v>23.9</v>
+        <v>37.2</v>
       </c>
       <c r="H17" t="n">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="I17" t="n">
-        <v>5425</v>
+        <v>13620</v>
       </c>
       <c r="J17" t="n">
-        <v>19.3</v>
+        <v>36.6</v>
       </c>
       <c r="K17" t="n">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="L17" t="n">
-        <v>7595</v>
+        <v>2240</v>
       </c>
       <c r="M17" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1805</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U17" t="n">
-        <v>4025</v>
+        <v>4675</v>
       </c>
       <c r="V17" t="n">
-        <v>14.3</v>
+        <v>12.6</v>
       </c>
       <c r="W17" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>2555</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="AA17" t="n">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
@@ -1845,80 +1845,80 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>35950</v>
+        <v>36312</v>
       </c>
       <c r="E18" t="n">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="F18" t="n">
-        <v>7485</v>
+        <v>14256</v>
       </c>
       <c r="G18" t="n">
-        <v>20.8</v>
+        <v>39.3</v>
       </c>
       <c r="H18" t="n">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="I18" t="n">
-        <v>7390</v>
+        <v>10630</v>
       </c>
       <c r="J18" t="n">
-        <v>20.6</v>
+        <v>29.3</v>
       </c>
       <c r="K18" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L18" t="n">
-        <v>4910</v>
+        <v>3676</v>
       </c>
       <c r="M18" t="n">
-        <v>13.7</v>
+        <v>10.1</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R18" t="n">
-        <v>1725</v>
+        <v>925</v>
       </c>
       <c r="S18" t="n">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="T18" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="U18" t="n">
-        <v>8705</v>
+        <v>6825</v>
       </c>
       <c r="V18" t="n">
-        <v>24.2</v>
+        <v>18.8</v>
       </c>
       <c r="W18" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>5625</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="AA18" t="n">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
@@ -1934,80 +1934,80 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>21575</v>
+        <v>25983</v>
       </c>
       <c r="E19" t="n">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="F19" t="n">
-        <v>2450</v>
+        <v>10795</v>
       </c>
       <c r="G19" t="n">
-        <v>11.4</v>
+        <v>41.5</v>
       </c>
       <c r="H19" t="n">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="I19" t="n">
-        <v>6120</v>
+        <v>6745</v>
       </c>
       <c r="J19" t="n">
-        <v>28.4</v>
+        <v>26</v>
       </c>
       <c r="K19" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="L19" t="n">
-        <v>3810</v>
+        <v>3538</v>
       </c>
       <c r="M19" t="n">
-        <v>17.7</v>
+        <v>13.6</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>1065</v>
+        <v>905</v>
       </c>
       <c r="S19" t="n">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="T19" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="U19" t="n">
-        <v>5050</v>
+        <v>4000</v>
       </c>
       <c r="V19" t="n">
-        <v>23.4</v>
+        <v>15.4</v>
       </c>
       <c r="W19" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>3030</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>161</v>
+        <v>229</v>
       </c>
       <c r="AA19" t="n">
-        <v>134</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
@@ -2023,38 +2023,38 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>18589</v>
+        <v>25993</v>
       </c>
       <c r="E20" t="n">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="F20" t="n">
-        <v>2970</v>
+        <v>10820</v>
       </c>
       <c r="G20" t="n">
-        <v>16</v>
+        <v>41.6</v>
       </c>
       <c r="H20" t="n">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="I20" t="n">
-        <v>4010</v>
+        <v>9189</v>
       </c>
       <c r="J20" t="n">
-        <v>21.6</v>
+        <v>35.4</v>
       </c>
       <c r="K20" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L20" t="n">
-        <v>4320</v>
+        <v>3524</v>
       </c>
       <c r="M20" t="n">
-        <v>23.2</v>
+        <v>13.6</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2066,37 +2066,37 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1215</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U20" t="n">
-        <v>2850</v>
+        <v>2460</v>
       </c>
       <c r="V20" t="n">
-        <v>15.3</v>
+        <v>9.5</v>
       </c>
       <c r="W20" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>3224</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>17.3</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>154</v>
+        <v>249</v>
       </c>
       <c r="AA20" t="n">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21">
@@ -2112,80 +2112,80 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>17220</v>
+        <v>31330</v>
       </c>
       <c r="E21" t="n">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="F21" t="n">
-        <v>2285</v>
+        <v>8775</v>
       </c>
       <c r="G21" t="n">
-        <v>13.3</v>
+        <v>28</v>
       </c>
       <c r="H21" t="n">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="I21" t="n">
-        <v>3755</v>
+        <v>11948</v>
       </c>
       <c r="J21" t="n">
-        <v>21.8</v>
+        <v>38.1</v>
       </c>
       <c r="K21" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="L21" t="n">
-        <v>4230</v>
+        <v>2427</v>
       </c>
       <c r="M21" t="n">
-        <v>24.6</v>
+        <v>7.7</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>3195</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>1340</v>
+        <v>270</v>
       </c>
       <c r="S21" t="n">
-        <v>7.8</v>
+        <v>0.9</v>
       </c>
       <c r="T21" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="U21" t="n">
-        <v>3185</v>
+        <v>4715</v>
       </c>
       <c r="V21" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="W21" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>2425</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>14.1</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>141</v>
+        <v>253</v>
       </c>
       <c r="AA21" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22">
@@ -2201,80 +2201,80 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>18210</v>
+        <v>27809</v>
       </c>
       <c r="E22" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F22" t="n">
-        <v>2175</v>
+        <v>11935</v>
       </c>
       <c r="G22" t="n">
-        <v>11.9</v>
+        <v>42.9</v>
       </c>
       <c r="H22" t="n">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="I22" t="n">
-        <v>5940</v>
+        <v>8482</v>
       </c>
       <c r="J22" t="n">
-        <v>32.6</v>
+        <v>30.5</v>
       </c>
       <c r="K22" t="n">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="L22" t="n">
-        <v>4415</v>
+        <v>4097</v>
       </c>
       <c r="M22" t="n">
-        <v>24.2</v>
+        <v>14.7</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
-        <v>1135</v>
+        <v>495</v>
       </c>
       <c r="S22" t="n">
-        <v>6.2</v>
+        <v>1.8</v>
       </c>
       <c r="T22" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="U22" t="n">
-        <v>2520</v>
+        <v>2800</v>
       </c>
       <c r="V22" t="n">
-        <v>13.8</v>
+        <v>10.1</v>
       </c>
       <c r="W22" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1925</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.6</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>154</v>
+        <v>252</v>
       </c>
       <c r="AA22" t="n">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
@@ -2290,38 +2290,38 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>14625</v>
+        <v>29044</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="F23" t="n">
-        <v>860</v>
+        <v>9801</v>
       </c>
       <c r="G23" t="n">
-        <v>5.9</v>
+        <v>33.7</v>
       </c>
       <c r="H23" t="n">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="I23" t="n">
-        <v>3895</v>
+        <v>11464</v>
       </c>
       <c r="J23" t="n">
-        <v>26.6</v>
+        <v>39.5</v>
       </c>
       <c r="K23" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="L23" t="n">
-        <v>4300</v>
+        <v>3594</v>
       </c>
       <c r="M23" t="n">
-        <v>29.4</v>
+        <v>12.4</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2333,37 +2333,37 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>795</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="U23" t="n">
-        <v>1080</v>
+        <v>4185</v>
       </c>
       <c r="V23" t="n">
-        <v>7.4</v>
+        <v>14.4</v>
       </c>
       <c r="W23" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>3695</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>25.3</v>
+        <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>119</v>
+        <v>282</v>
       </c>
       <c r="AA23" t="n">
-        <v>123</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24">
@@ -2379,38 +2379,38 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>29325</v>
+        <v>32082</v>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="F24" t="n">
-        <v>4565</v>
+        <v>12475</v>
       </c>
       <c r="G24" t="n">
-        <v>15.6</v>
+        <v>38.9</v>
       </c>
       <c r="H24" t="n">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="I24" t="n">
-        <v>7030</v>
+        <v>12195</v>
       </c>
       <c r="J24" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="K24" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L24" t="n">
-        <v>7830</v>
+        <v>2607</v>
       </c>
       <c r="M24" t="n">
-        <v>26.7</v>
+        <v>8.1</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2422,37 +2422,37 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
-        <v>1840</v>
+        <v>115</v>
       </c>
       <c r="S24" t="n">
-        <v>6.3</v>
+        <v>0.4</v>
       </c>
       <c r="T24" t="n">
         <v>25</v>
       </c>
       <c r="U24" t="n">
-        <v>4530</v>
+        <v>4690</v>
       </c>
       <c r="V24" t="n">
-        <v>15.4</v>
+        <v>14.6</v>
       </c>
       <c r="W24" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>3530</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="AA24" t="n">
-        <v>160</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25">
@@ -2468,80 +2468,80 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>31590</v>
+        <v>37600</v>
       </c>
       <c r="E25" t="n">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="F25" t="n">
-        <v>4750</v>
+        <v>15828</v>
       </c>
       <c r="G25" t="n">
-        <v>15</v>
+        <v>42.1</v>
       </c>
       <c r="H25" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="I25" t="n">
-        <v>5640</v>
+        <v>12624</v>
       </c>
       <c r="J25" t="n">
-        <v>17.9</v>
+        <v>33.6</v>
       </c>
       <c r="K25" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L25" t="n">
-        <v>5315</v>
+        <v>3083</v>
       </c>
       <c r="M25" t="n">
-        <v>16.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="N25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>855</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="R25" t="n">
-        <v>3360</v>
+        <v>900</v>
       </c>
       <c r="S25" t="n">
-        <v>10.6</v>
+        <v>2.4</v>
       </c>
       <c r="T25" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="U25" t="n">
-        <v>9180</v>
+        <v>5165</v>
       </c>
       <c r="V25" t="n">
-        <v>29.1</v>
+        <v>13.7</v>
       </c>
       <c r="W25" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>2490</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.9</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>170</v>
+        <v>279</v>
       </c>
       <c r="AA25" t="n">
-        <v>186</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26">
@@ -2557,38 +2557,38 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>19145</v>
+        <v>23804</v>
       </c>
       <c r="E26" t="n">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="F26" t="n">
-        <v>2525</v>
+        <v>9933</v>
       </c>
       <c r="G26" t="n">
-        <v>13.2</v>
+        <v>41.7</v>
       </c>
       <c r="H26" t="n">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="I26" t="n">
-        <v>3560</v>
+        <v>8069</v>
       </c>
       <c r="J26" t="n">
-        <v>18.6</v>
+        <v>33.9</v>
       </c>
       <c r="K26" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="L26" t="n">
-        <v>4870</v>
+        <v>2992</v>
       </c>
       <c r="M26" t="n">
-        <v>25.4</v>
+        <v>12.6</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2600,37 +2600,37 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R26" t="n">
-        <v>690</v>
+        <v>535</v>
       </c>
       <c r="S26" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="T26" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="U26" t="n">
-        <v>4335</v>
+        <v>2275</v>
       </c>
       <c r="V26" t="n">
-        <v>22.6</v>
+        <v>9.6</v>
       </c>
       <c r="W26" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>3165</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="AA26" t="n">
-        <v>129</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -2646,38 +2646,38 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>18240</v>
+        <v>24945</v>
       </c>
       <c r="E27" t="n">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="F27" t="n">
-        <v>2515</v>
+        <v>11304</v>
       </c>
       <c r="G27" t="n">
-        <v>13.8</v>
+        <v>45.3</v>
       </c>
       <c r="H27" t="n">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="I27" t="n">
-        <v>3200</v>
+        <v>7211</v>
       </c>
       <c r="J27" t="n">
-        <v>17.5</v>
+        <v>28.9</v>
       </c>
       <c r="K27" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="L27" t="n">
-        <v>4240</v>
+        <v>3270</v>
       </c>
       <c r="M27" t="n">
-        <v>23.2</v>
+        <v>13.1</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2689,37 +2689,37 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
-        <v>1765</v>
+        <v>275</v>
       </c>
       <c r="S27" t="n">
-        <v>9.699999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="T27" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="U27" t="n">
-        <v>3080</v>
+        <v>2885</v>
       </c>
       <c r="V27" t="n">
-        <v>16.9</v>
+        <v>11.6</v>
       </c>
       <c r="W27" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>3440</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>18.9</v>
+        <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>152</v>
+        <v>246</v>
       </c>
       <c r="AA27" t="n">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28">
@@ -2735,38 +2735,38 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>17435</v>
+        <v>31360</v>
       </c>
       <c r="E28" t="n">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="F28" t="n">
-        <v>1920</v>
+        <v>11181</v>
       </c>
       <c r="G28" t="n">
-        <v>11</v>
+        <v>35.7</v>
       </c>
       <c r="H28" t="n">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="I28" t="n">
-        <v>5115</v>
+        <v>13480</v>
       </c>
       <c r="J28" t="n">
-        <v>29.3</v>
+        <v>43</v>
       </c>
       <c r="K28" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="L28" t="n">
-        <v>4395</v>
+        <v>3224</v>
       </c>
       <c r="M28" t="n">
-        <v>25.2</v>
+        <v>10.3</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2778,37 +2778,37 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
-        <v>1120</v>
+        <v>535</v>
       </c>
       <c r="S28" t="n">
-        <v>6.4</v>
+        <v>1.7</v>
       </c>
       <c r="T28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U28" t="n">
-        <v>3300</v>
+        <v>2940</v>
       </c>
       <c r="V28" t="n">
-        <v>18.9</v>
+        <v>9.4</v>
       </c>
       <c r="W28" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>1585</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>137</v>
+        <v>258</v>
       </c>
       <c r="AA28" t="n">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29">
@@ -2824,38 +2824,38 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>18655</v>
+        <v>28941</v>
       </c>
       <c r="E29" t="n">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="F29" t="n">
-        <v>3030</v>
+        <v>10960</v>
       </c>
       <c r="G29" t="n">
-        <v>16.2</v>
+        <v>37.9</v>
       </c>
       <c r="H29" t="n">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="I29" t="n">
-        <v>5655</v>
+        <v>11215</v>
       </c>
       <c r="J29" t="n">
-        <v>30.3</v>
+        <v>38.8</v>
       </c>
       <c r="K29" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L29" t="n">
-        <v>4860</v>
+        <v>2281</v>
       </c>
       <c r="M29" t="n">
-        <v>26.1</v>
+        <v>7.9</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2867,37 +2867,37 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
-        <v>565</v>
+        <v>735</v>
       </c>
       <c r="S29" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U29" t="n">
-        <v>3390</v>
+        <v>3750</v>
       </c>
       <c r="V29" t="n">
-        <v>18.2</v>
+        <v>13</v>
       </c>
       <c r="W29" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1155</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>189</v>
+        <v>260</v>
       </c>
       <c r="AA29" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30">
@@ -2913,80 +2913,80 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>15876</v>
+        <v>33958</v>
       </c>
       <c r="E30" t="n">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="F30" t="n">
-        <v>950</v>
+        <v>11473</v>
       </c>
       <c r="G30" t="n">
-        <v>6</v>
+        <v>33.8</v>
       </c>
       <c r="H30" t="n">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="I30" t="n">
-        <v>6290</v>
+        <v>15215</v>
       </c>
       <c r="J30" t="n">
-        <v>39.6</v>
+        <v>44.8</v>
       </c>
       <c r="K30" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="L30" t="n">
-        <v>3485</v>
+        <v>4340</v>
       </c>
       <c r="M30" t="n">
-        <v>22</v>
+        <v>12.8</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R30" t="n">
-        <v>1895</v>
+        <v>235</v>
       </c>
       <c r="S30" t="n">
-        <v>11.9</v>
+        <v>0.7</v>
       </c>
       <c r="T30" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="U30" t="n">
-        <v>1585</v>
+        <v>2695</v>
       </c>
       <c r="V30" t="n">
-        <v>10</v>
+        <v>7.9</v>
       </c>
       <c r="W30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>1636</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.3</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>125</v>
+        <v>274</v>
       </c>
       <c r="AA30" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31">
@@ -3002,38 +3002,38 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>28230</v>
+        <v>29183</v>
       </c>
       <c r="E31" t="n">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="F31" t="n">
-        <v>5445</v>
+        <v>10542</v>
       </c>
       <c r="G31" t="n">
-        <v>19.3</v>
+        <v>36.1</v>
       </c>
       <c r="H31" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="I31" t="n">
-        <v>5235</v>
+        <v>9125</v>
       </c>
       <c r="J31" t="n">
-        <v>18.5</v>
+        <v>31.3</v>
       </c>
       <c r="K31" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L31" t="n">
-        <v>6455</v>
+        <v>3656</v>
       </c>
       <c r="M31" t="n">
-        <v>22.9</v>
+        <v>12.5</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -3045,37 +3045,37 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="R31" t="n">
-        <v>2665</v>
+        <v>940</v>
       </c>
       <c r="S31" t="n">
-        <v>9.4</v>
+        <v>3.2</v>
       </c>
       <c r="T31" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="U31" t="n">
-        <v>6600</v>
+        <v>4920</v>
       </c>
       <c r="V31" t="n">
-        <v>23.4</v>
+        <v>16.9</v>
       </c>
       <c r="W31" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>1830</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="AA31" t="n">
-        <v>165</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32">
@@ -3091,38 +3091,38 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>33160</v>
+        <v>34508</v>
       </c>
       <c r="E32" t="n">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="F32" t="n">
-        <v>5170</v>
+        <v>13645</v>
       </c>
       <c r="G32" t="n">
-        <v>15.6</v>
+        <v>39.5</v>
       </c>
       <c r="H32" t="n">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="I32" t="n">
-        <v>9455</v>
+        <v>12420</v>
       </c>
       <c r="J32" t="n">
-        <v>28.5</v>
+        <v>36</v>
       </c>
       <c r="K32" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="L32" t="n">
-        <v>6445</v>
+        <v>1728</v>
       </c>
       <c r="M32" t="n">
-        <v>19.4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -3134,37 +3134,37 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="R32" t="n">
-        <v>3845</v>
+        <v>120</v>
       </c>
       <c r="S32" t="n">
-        <v>11.6</v>
+        <v>0.3</v>
       </c>
       <c r="T32" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="U32" t="n">
-        <v>8190</v>
+        <v>6595</v>
       </c>
       <c r="V32" t="n">
-        <v>24.7</v>
+        <v>19.1</v>
       </c>
       <c r="W32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="AA32" t="n">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33">
@@ -3180,38 +3180,38 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>15445</v>
+        <v>26680</v>
       </c>
       <c r="E33" t="n">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="F33" t="n">
-        <v>1600</v>
+        <v>10744</v>
       </c>
       <c r="G33" t="n">
-        <v>10.4</v>
+        <v>40.3</v>
       </c>
       <c r="H33" t="n">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="I33" t="n">
-        <v>4280</v>
+        <v>10139</v>
       </c>
       <c r="J33" t="n">
-        <v>27.7</v>
+        <v>38</v>
       </c>
       <c r="K33" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="L33" t="n">
-        <v>3885</v>
+        <v>3122</v>
       </c>
       <c r="M33" t="n">
-        <v>25.2</v>
+        <v>11.7</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -3223,34 +3223,34 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="U33" t="n">
-        <v>3785</v>
+        <v>2675</v>
       </c>
       <c r="V33" t="n">
-        <v>24.5</v>
+        <v>10</v>
       </c>
       <c r="W33" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>1165</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="AA33" t="n">
         <v>110</v>
@@ -3265,76 +3265,76 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>691109</v>
+        <v>926899</v>
       </c>
       <c r="E34" t="n">
-        <v>767</v>
+        <v>2598</v>
       </c>
       <c r="F34" t="n">
-        <v>104871</v>
+        <v>358369</v>
       </c>
       <c r="G34" t="n">
-        <v>15.2</v>
+        <v>38.7</v>
       </c>
       <c r="H34" t="n">
-        <v>1542</v>
+        <v>2984</v>
       </c>
       <c r="I34" t="n">
-        <v>170220</v>
+        <v>333365</v>
       </c>
       <c r="J34" t="n">
-        <v>24.6</v>
+        <v>36</v>
       </c>
       <c r="K34" t="n">
-        <v>1222</v>
+        <v>1474</v>
       </c>
       <c r="L34" t="n">
-        <v>151630</v>
+        <v>99700</v>
       </c>
       <c r="M34" t="n">
-        <v>21.9</v>
+        <v>10.8</v>
       </c>
       <c r="N34" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O34" t="n">
-        <v>1345</v>
+        <v>5995</v>
       </c>
       <c r="P34" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="Q34" t="n">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="R34" t="n">
-        <v>48345</v>
+        <v>16905</v>
       </c>
       <c r="S34" t="n">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="T34" t="n">
-        <v>641</v>
+        <v>616</v>
       </c>
       <c r="U34" t="n">
-        <v>117255</v>
+        <v>112565</v>
       </c>
       <c r="V34" t="n">
-        <v>17</v>
+        <v>12.1</v>
       </c>
       <c r="W34" t="n">
-        <v>489</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>97443</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>14.1</v>
+        <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>4916</v>
+        <v>7751</v>
       </c>
       <c r="AA34" t="n">
-        <v>141</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
